--- a/www.eia.gov/electricity/monthly/xls/table_5_05_a.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_5_05_a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
     <t>Table 5.5.A. Revenue from Sales of Electricity to Ultimate Customers by End-Use Sector,</t>
   </si>
   <si>
-    <t>by State, October 2016 and 2015 (Million Dollars)</t>
+    <t>by State, November 2016 and 2015 (Million Dollars)</t>
   </si>
   <si>
     <t/>
@@ -52,10 +52,10 @@
 and State</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>October 2015</t>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>November 2015</t>
   </si>
   <si>
     <t>New England</t>
@@ -1287,22 +1287,22 @@
         <v>11</v>
       </c>
       <c r="B5" s="8">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="C5" s="8">
-        <v>611</v>
+        <v>592</v>
       </c>
       <c r="D5" s="8">
-        <v>639</v>
+        <v>593</v>
       </c>
       <c r="E5" s="8">
-        <v>651</v>
+        <v>588</v>
       </c>
       <c r="F5" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G5" s="8">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="H5" s="8">
         <v>3</v>
@@ -1311,10 +1311,10 @@
         <v>4</v>
       </c>
       <c r="J5" s="8">
-        <v>1412</v>
+        <v>1371</v>
       </c>
       <c r="K5" s="8">
-        <v>1462</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1322,22 +1322,22 @@
         <v>12</v>
       </c>
       <c r="B6" s="10">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C6" s="10">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D6" s="10">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E6" s="10">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="F6" s="10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G6" s="10">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H6" s="10">
         <v>1</v>
@@ -1346,10 +1346,10 @@
         <v>1</v>
       </c>
       <c r="J6" s="10">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K6" s="10">
-        <v>371</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1360,19 +1360,19 @@
         <v>54</v>
       </c>
       <c r="C7" s="10">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D7" s="10">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E7" s="10">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F7" s="10">
         <v>21</v>
       </c>
       <c r="G7" s="10">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H7" s="10">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="J7" s="10">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K7" s="10">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1395,19 +1395,19 @@
         <v>258</v>
       </c>
       <c r="C8" s="10">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D8" s="10">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="E8" s="10">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="F8" s="10">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G8" s="10">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H8" s="10">
         <v>1</v>
@@ -1416,10 +1416,10 @@
         <v>2</v>
       </c>
       <c r="J8" s="10">
-        <v>656</v>
+        <v>623</v>
       </c>
       <c r="K8" s="10">
-        <v>676</v>
+        <v>625</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1427,22 +1427,22 @@
         <v>15</v>
       </c>
       <c r="B9" s="10">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C9" s="10">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="10">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E9" s="10">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F9" s="10">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G9" s="10">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9" s="10">
         <v>0</v>
@@ -1451,10 +1451,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="10">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K9" s="10">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1462,16 +1462,16 @@
         <v>16</v>
       </c>
       <c r="B10" s="10">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" s="10">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D10" s="10">
         <v>41</v>
       </c>
       <c r="E10" s="10">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F10" s="10">
         <v>8</v>
@@ -1480,16 +1480,16 @@
         <v>8</v>
       </c>
       <c r="H10" s="10">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="I10" s="10">
         <v>0.38</v>
       </c>
       <c r="J10" s="10">
+        <v>88</v>
+      </c>
+      <c r="K10" s="10">
         <v>91</v>
-      </c>
-      <c r="K10" s="10">
-        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1497,19 +1497,19 @@
         <v>17</v>
       </c>
       <c r="B11" s="10">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" s="10">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="10">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" s="10">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11" s="10">
         <v>12</v>
@@ -1532,34 +1532,34 @@
         <v>18</v>
       </c>
       <c r="B12" s="8">
-        <v>1473</v>
+        <v>1422</v>
       </c>
       <c r="C12" s="8">
-        <v>1471</v>
+        <v>1391</v>
       </c>
       <c r="D12" s="8">
-        <v>1596</v>
+        <v>1462</v>
       </c>
       <c r="E12" s="8">
-        <v>1644</v>
+        <v>1481</v>
       </c>
       <c r="F12" s="8">
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="G12" s="8">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="H12" s="8">
         <v>33</v>
       </c>
       <c r="I12" s="8">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J12" s="8">
-        <v>3506</v>
+        <v>3297</v>
       </c>
       <c r="K12" s="8">
-        <v>3592</v>
+        <v>3306</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1567,34 +1567,34 @@
         <v>19</v>
       </c>
       <c r="B13" s="10">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C13" s="10">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D13" s="10">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="E13" s="10">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="F13" s="10">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G13" s="10">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H13" s="10">
         <v>2</v>
       </c>
       <c r="I13" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J13" s="10">
-        <v>712</v>
+        <v>674</v>
       </c>
       <c r="K13" s="10">
-        <v>709</v>
+        <v>684</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1602,34 +1602,34 @@
         <v>20</v>
       </c>
       <c r="B14" s="10">
-        <v>678</v>
+        <v>623</v>
       </c>
       <c r="C14" s="10">
-        <v>691</v>
+        <v>616</v>
       </c>
       <c r="D14" s="10">
-        <v>909</v>
+        <v>814</v>
       </c>
       <c r="E14" s="10">
-        <v>946</v>
+        <v>816</v>
       </c>
       <c r="F14" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G14" s="10">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H14" s="10">
         <v>26</v>
       </c>
       <c r="I14" s="10">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J14" s="10">
-        <v>1693</v>
+        <v>1546</v>
       </c>
       <c r="K14" s="10">
-        <v>1762</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1637,34 +1637,34 @@
         <v>21</v>
       </c>
       <c r="B15" s="10">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="C15" s="10">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D15" s="10">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="E15" s="10">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="F15" s="10">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="G15" s="10">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="H15" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I15" s="10">
         <v>5</v>
       </c>
       <c r="J15" s="10">
-        <v>1101</v>
+        <v>1077</v>
       </c>
       <c r="K15" s="10">
-        <v>1120</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1672,22 +1672,22 @@
         <v>22</v>
       </c>
       <c r="B16" s="8">
-        <v>1617</v>
+        <v>1666</v>
       </c>
       <c r="C16" s="8">
-        <v>1596</v>
+        <v>1708</v>
       </c>
       <c r="D16" s="8">
-        <v>1510</v>
+        <v>1407</v>
       </c>
       <c r="E16" s="8">
-        <v>1469</v>
+        <v>1386</v>
       </c>
       <c r="F16" s="8">
-        <v>1063</v>
+        <v>1019</v>
       </c>
       <c r="G16" s="8">
-        <v>1124</v>
+        <v>1057</v>
       </c>
       <c r="H16" s="8">
         <v>3</v>
@@ -1696,10 +1696,10 @@
         <v>3</v>
       </c>
       <c r="J16" s="8">
-        <v>4193</v>
+        <v>4095</v>
       </c>
       <c r="K16" s="8">
-        <v>4193</v>
+        <v>4153</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1707,34 +1707,34 @@
         <v>23</v>
       </c>
       <c r="B17" s="10">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="C17" s="10">
-        <v>388</v>
+        <v>417</v>
       </c>
       <c r="D17" s="10">
-        <v>360</v>
+        <v>335</v>
       </c>
       <c r="E17" s="10">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="F17" s="10">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="G17" s="10">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="H17" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" s="10">
         <v>3</v>
       </c>
       <c r="J17" s="10">
-        <v>965</v>
+        <v>924</v>
       </c>
       <c r="K17" s="10">
-        <v>984</v>
+        <v>978</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1742,34 +1742,34 @@
         <v>24</v>
       </c>
       <c r="B18" s="10">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="C18" s="10">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D18" s="10">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E18" s="10">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="F18" s="10">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G18" s="10">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="H18" s="10">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="I18" s="10">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="J18" s="10">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="K18" s="10">
-        <v>703</v>
+        <v>683</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1777,22 +1777,22 @@
         <v>25</v>
       </c>
       <c r="B19" s="10">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C19" s="10">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="D19" s="10">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="E19" s="10">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="F19" s="10">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="G19" s="10">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H19" s="10">
         <v>0.04</v>
@@ -1801,10 +1801,10 @@
         <v>0.04</v>
       </c>
       <c r="J19" s="10">
-        <v>892</v>
+        <v>863</v>
       </c>
       <c r="K19" s="10">
-        <v>832</v>
+        <v>835</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1812,31 +1812,31 @@
         <v>26</v>
       </c>
       <c r="B20" s="10">
-        <v>398</v>
+        <v>424</v>
       </c>
       <c r="C20" s="10">
-        <v>418</v>
+        <v>455</v>
       </c>
       <c r="D20" s="10">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="E20" s="10">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="F20" s="10">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="G20" s="10">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="H20" s="10">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="I20" s="10">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="J20" s="10">
-        <v>1057</v>
+        <v>1046</v>
       </c>
       <c r="K20" s="10">
         <v>1102</v>
@@ -1847,22 +1847,22 @@
         <v>27</v>
       </c>
       <c r="B21" s="10">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="C21" s="10">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="D21" s="10">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="E21" s="10">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="F21" s="10">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="G21" s="10">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="H21" s="10">
         <v>0</v>
@@ -1871,10 +1871,10 @@
         <v>0</v>
       </c>
       <c r="J21" s="10">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="K21" s="10">
-        <v>571</v>
+        <v>556</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1882,34 +1882,34 @@
         <v>28</v>
       </c>
       <c r="B22" s="8">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="C22" s="8">
-        <v>762</v>
+        <v>774</v>
       </c>
       <c r="D22" s="8">
-        <v>766</v>
+        <v>724</v>
       </c>
       <c r="E22" s="8">
-        <v>739</v>
+        <v>700</v>
       </c>
       <c r="F22" s="8">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="G22" s="8">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="H22" s="8">
         <v>0.31</v>
       </c>
       <c r="I22" s="8">
-        <v>0.28000000000000003</v>
+        <v>0.27</v>
       </c>
       <c r="J22" s="8">
-        <v>2036</v>
+        <v>1975</v>
       </c>
       <c r="K22" s="8">
-        <v>2006</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1917,22 +1917,22 @@
         <v>29</v>
       </c>
       <c r="B23" s="10">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C23" s="10">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D23" s="10">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E23" s="10">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F23" s="10">
         <v>98</v>
       </c>
       <c r="G23" s="10">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="H23" s="10">
         <v>0</v>
@@ -1941,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="J23" s="10">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="K23" s="10">
-        <v>286</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1952,22 +1952,22 @@
         <v>30</v>
       </c>
       <c r="B24" s="10">
+        <v>105</v>
+      </c>
+      <c r="C24" s="10">
+        <v>104</v>
+      </c>
+      <c r="D24" s="10">
+        <v>117</v>
+      </c>
+      <c r="E24" s="10">
         <v>116</v>
       </c>
-      <c r="C24" s="10">
-        <v>102</v>
-      </c>
-      <c r="D24" s="10">
-        <v>133</v>
-      </c>
-      <c r="E24" s="10">
-        <v>124</v>
-      </c>
       <c r="F24" s="10">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G24" s="10">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H24" s="10">
         <v>0</v>
@@ -1976,10 +1976,10 @@
         <v>0</v>
       </c>
       <c r="J24" s="10">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="K24" s="10">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1987,34 +1987,34 @@
         <v>31</v>
       </c>
       <c r="B25" s="10">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C25" s="10">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D25" s="10">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E25" s="10">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="F25" s="10">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G25" s="10">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H25" s="10">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="I25" s="10">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="J25" s="10">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="K25" s="10">
-        <v>496</v>
+        <v>473</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2022,34 +2022,34 @@
         <v>32</v>
       </c>
       <c r="B26" s="10">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C26" s="10">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="D26" s="10">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="E26" s="10">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F26" s="10">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G26" s="10">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H26" s="10">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I26" s="10">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="J26" s="10">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="K26" s="10">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2057,19 +2057,19 @@
         <v>33</v>
       </c>
       <c r="B27" s="10">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C27" s="10">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D27" s="10">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E27" s="10">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F27" s="10">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G27" s="10">
         <v>58</v>
@@ -2081,10 +2081,10 @@
         <v>0</v>
       </c>
       <c r="J27" s="10">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="K27" s="10">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2092,10 +2092,10 @@
         <v>34</v>
       </c>
       <c r="B28" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C28" s="10">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D28" s="10">
         <v>47</v>
@@ -2107,7 +2107,7 @@
         <v>53</v>
       </c>
       <c r="G28" s="10">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H28" s="10">
         <v>0</v>
@@ -2116,10 +2116,10 @@
         <v>0</v>
       </c>
       <c r="J28" s="10">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K28" s="10">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2127,22 +2127,22 @@
         <v>35</v>
       </c>
       <c r="B29" s="10">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C29" s="10">
+        <v>38</v>
+      </c>
+      <c r="D29" s="10">
         <v>36</v>
       </c>
-      <c r="D29" s="10">
-        <v>37</v>
-      </c>
       <c r="E29" s="10">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F29" s="10">
         <v>17</v>
       </c>
       <c r="G29" s="10">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H29" s="10">
         <v>0</v>
@@ -2154,7 +2154,7 @@
         <v>91</v>
       </c>
       <c r="K29" s="10">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -2162,34 +2162,34 @@
         <v>36</v>
       </c>
       <c r="B30" s="8">
-        <v>2978</v>
+        <v>2729</v>
       </c>
       <c r="C30" s="8">
-        <v>2927</v>
+        <v>2780</v>
       </c>
       <c r="D30" s="8">
-        <v>2349</v>
+        <v>2205</v>
       </c>
       <c r="E30" s="8">
-        <v>2398</v>
+        <v>2236</v>
       </c>
       <c r="F30" s="8">
-        <v>728</v>
+        <v>691</v>
       </c>
       <c r="G30" s="8">
-        <v>778</v>
+        <v>725</v>
       </c>
       <c r="H30" s="8">
+        <v>8</v>
+      </c>
+      <c r="I30" s="8">
         <v>9</v>
       </c>
-      <c r="I30" s="8">
-        <v>8</v>
-      </c>
       <c r="J30" s="8">
-        <v>6064</v>
+        <v>5632</v>
       </c>
       <c r="K30" s="8">
-        <v>6111</v>
+        <v>5750</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2197,23 +2197,23 @@
         <v>37</v>
       </c>
       <c r="B31" s="10">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C31" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D31" s="10">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E31" s="10">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F31" s="10">
+        <v>13</v>
+      </c>
+      <c r="G31" s="10">
         <v>15</v>
       </c>
-      <c r="G31" s="10">
-        <v>16</v>
-      </c>
       <c r="H31" s="10">
         <v>0</v>
       </c>
@@ -2221,10 +2221,10 @@
         <v>0</v>
       </c>
       <c r="J31" s="10">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="K31" s="10">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2232,16 +2232,16 @@
         <v>38</v>
       </c>
       <c r="B32" s="10">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C32" s="10">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D32" s="10">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E32" s="10">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F32" s="10">
         <v>1</v>
@@ -2250,16 +2250,16 @@
         <v>2</v>
       </c>
       <c r="H32" s="10">
+        <v>2</v>
+      </c>
+      <c r="I32" s="10">
         <v>3</v>
       </c>
-      <c r="I32" s="10">
-        <v>2</v>
-      </c>
       <c r="J32" s="10">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K32" s="10">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2267,22 +2267,22 @@
         <v>39</v>
       </c>
       <c r="B33" s="10">
-        <v>1147</v>
+        <v>924</v>
       </c>
       <c r="C33" s="10">
-        <v>1150</v>
+        <v>1065</v>
       </c>
       <c r="D33" s="10">
-        <v>736</v>
+        <v>674</v>
       </c>
       <c r="E33" s="10">
-        <v>771</v>
+        <v>738</v>
       </c>
       <c r="F33" s="10">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G33" s="10">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H33" s="10">
         <v>1</v>
@@ -2291,10 +2291,10 @@
         <v>1</v>
       </c>
       <c r="J33" s="10">
-        <v>1990</v>
+        <v>1703</v>
       </c>
       <c r="K33" s="10">
-        <v>2035</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2302,22 +2302,22 @@
         <v>40</v>
       </c>
       <c r="B34" s="10">
-        <v>451</v>
+        <v>390</v>
       </c>
       <c r="C34" s="10">
-        <v>414</v>
+        <v>368</v>
       </c>
       <c r="D34" s="10">
-        <v>370</v>
+        <v>342</v>
       </c>
       <c r="E34" s="10">
-        <v>371</v>
+        <v>323</v>
       </c>
       <c r="F34" s="10">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G34" s="10">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="H34" s="10">
         <v>1</v>
@@ -2326,10 +2326,10 @@
         <v>1</v>
       </c>
       <c r="J34" s="10">
-        <v>968</v>
+        <v>869</v>
       </c>
       <c r="K34" s="10">
-        <v>938</v>
+        <v>826</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2337,34 +2337,34 @@
         <v>41</v>
       </c>
       <c r="B35" s="10">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="C35" s="10">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="D35" s="10">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="E35" s="10">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F35" s="10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G35" s="10">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H35" s="10">
         <v>3</v>
       </c>
       <c r="I35" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J35" s="10">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="K35" s="10">
-        <v>526</v>
+        <v>543</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2372,34 +2372,34 @@
         <v>42</v>
       </c>
       <c r="B36" s="10">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C36" s="10">
-        <v>429</v>
+        <v>384</v>
       </c>
       <c r="D36" s="10">
-        <v>336</v>
+        <v>306</v>
       </c>
       <c r="E36" s="10">
-        <v>347</v>
+        <v>298</v>
       </c>
       <c r="F36" s="10">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="G36" s="10">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="H36" s="10">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I36" s="10">
         <v>0.05</v>
       </c>
       <c r="J36" s="10">
-        <v>898</v>
+        <v>854</v>
       </c>
       <c r="K36" s="10">
-        <v>929</v>
+        <v>819</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2407,22 +2407,22 @@
         <v>43</v>
       </c>
       <c r="B37" s="10">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C37" s="10">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="D37" s="10">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E37" s="10">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="F37" s="10">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="G37" s="10">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H37" s="10">
         <v>0</v>
@@ -2431,10 +2431,10 @@
         <v>0</v>
       </c>
       <c r="J37" s="10">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="K37" s="10">
-        <v>563</v>
+        <v>530</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2442,22 +2442,22 @@
         <v>44</v>
       </c>
       <c r="B38" s="10">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="C38" s="10">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="D38" s="10">
         <v>303</v>
       </c>
       <c r="E38" s="10">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="F38" s="10">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G38" s="10">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="H38" s="10">
         <v>1</v>
@@ -2466,10 +2466,10 @@
         <v>1</v>
       </c>
       <c r="J38" s="10">
-        <v>713</v>
+        <v>734</v>
       </c>
       <c r="K38" s="10">
-        <v>733</v>
+        <v>716</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2477,22 +2477,22 @@
         <v>45</v>
       </c>
       <c r="B39" s="10">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C39" s="10">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D39" s="10">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E39" s="10">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F39" s="10">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G39" s="10">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H39" s="10">
         <v>0</v>
@@ -2501,10 +2501,10 @@
         <v>0</v>
       </c>
       <c r="J39" s="10">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="K39" s="10">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2512,22 +2512,22 @@
         <v>46</v>
       </c>
       <c r="B40" s="8">
-        <v>952</v>
+        <v>832</v>
       </c>
       <c r="C40" s="8">
-        <v>854</v>
+        <v>788</v>
       </c>
       <c r="D40" s="8">
-        <v>789</v>
+        <v>717</v>
       </c>
       <c r="E40" s="8">
-        <v>754</v>
+        <v>697</v>
       </c>
       <c r="F40" s="8">
-        <v>488</v>
+        <v>462</v>
       </c>
       <c r="G40" s="8">
-        <v>495</v>
+        <v>450</v>
       </c>
       <c r="H40" s="8">
         <v>0</v>
@@ -2536,10 +2536,10 @@
         <v>0</v>
       </c>
       <c r="J40" s="8">
-        <v>2229</v>
+        <v>2012</v>
       </c>
       <c r="K40" s="8">
-        <v>2103</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2547,22 +2547,22 @@
         <v>47</v>
       </c>
       <c r="B41" s="10">
-        <v>286</v>
+        <v>242</v>
       </c>
       <c r="C41" s="10">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="D41" s="10">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="E41" s="10">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="F41" s="10">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="G41" s="10">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="H41" s="10">
         <v>0</v>
@@ -2571,10 +2571,10 @@
         <v>0</v>
       </c>
       <c r="J41" s="10">
-        <v>673</v>
+        <v>592</v>
       </c>
       <c r="K41" s="10">
-        <v>602</v>
+        <v>546</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2582,22 +2582,22 @@
         <v>48</v>
       </c>
       <c r="B42" s="10">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C42" s="10">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D42" s="10">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E42" s="10">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F42" s="10">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G42" s="10">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="H42" s="10">
         <v>0</v>
@@ -2606,10 +2606,10 @@
         <v>0</v>
       </c>
       <c r="J42" s="10">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="K42" s="10">
-        <v>456</v>
+        <v>438</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2617,22 +2617,22 @@
         <v>49</v>
       </c>
       <c r="B43" s="10">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="C43" s="10">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="D43" s="10">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="E43" s="10">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F43" s="10">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G43" s="10">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H43" s="10">
         <v>0</v>
@@ -2641,10 +2641,10 @@
         <v>0</v>
       </c>
       <c r="J43" s="10">
-        <v>371</v>
+        <v>318</v>
       </c>
       <c r="K43" s="10">
-        <v>365</v>
+        <v>321</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -2652,22 +2652,22 @@
         <v>50</v>
       </c>
       <c r="B44" s="10">
-        <v>319</v>
+        <v>278</v>
       </c>
       <c r="C44" s="10">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="D44" s="10">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="E44" s="10">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="F44" s="10">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G44" s="10">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="H44" s="10">
         <v>0</v>
@@ -2676,10 +2676,10 @@
         <v>0</v>
       </c>
       <c r="J44" s="10">
-        <v>725</v>
+        <v>654</v>
       </c>
       <c r="K44" s="10">
-        <v>680</v>
+        <v>630</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2687,22 +2687,22 @@
         <v>51</v>
       </c>
       <c r="B45" s="8">
-        <v>1904</v>
+        <v>1439</v>
       </c>
       <c r="C45" s="8">
-        <v>1846</v>
+        <v>1370</v>
       </c>
       <c r="D45" s="8">
-        <v>1342</v>
+        <v>1162</v>
       </c>
       <c r="E45" s="8">
-        <v>1358</v>
+        <v>1149</v>
       </c>
       <c r="F45" s="8">
-        <v>768</v>
+        <v>724</v>
       </c>
       <c r="G45" s="8">
-        <v>843</v>
+        <v>764</v>
       </c>
       <c r="H45" s="8">
         <v>1</v>
@@ -2711,10 +2711,10 @@
         <v>1</v>
       </c>
       <c r="J45" s="8">
-        <v>4015</v>
+        <v>3327</v>
       </c>
       <c r="K45" s="8">
-        <v>4048</v>
+        <v>3284</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2722,22 +2722,22 @@
         <v>52</v>
       </c>
       <c r="B46" s="10">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="C46" s="10">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="D46" s="10">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E46" s="10">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F46" s="10">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G46" s="10">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H46" s="10">
         <v>0</v>
@@ -2746,10 +2746,10 @@
         <v>0</v>
       </c>
       <c r="J46" s="10">
-        <v>304</v>
+        <v>263</v>
       </c>
       <c r="K46" s="10">
-        <v>296</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -2757,34 +2757,34 @@
         <v>53</v>
       </c>
       <c r="B47" s="10">
-        <v>252</v>
+        <v>187</v>
       </c>
       <c r="C47" s="10">
-        <v>235</v>
+        <v>178</v>
       </c>
       <c r="D47" s="10">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="E47" s="10">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="F47" s="10">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G47" s="10">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="H47" s="10">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I47" s="10">
         <v>0.08</v>
       </c>
       <c r="J47" s="10">
-        <v>588</v>
+        <v>500</v>
       </c>
       <c r="K47" s="10">
-        <v>583</v>
+        <v>496</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2792,22 +2792,22 @@
         <v>54</v>
       </c>
       <c r="B48" s="10">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="C48" s="10">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="D48" s="10">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="E48" s="10">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="F48" s="10">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G48" s="10">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H48" s="10">
         <v>0</v>
@@ -2816,10 +2816,10 @@
         <v>0</v>
       </c>
       <c r="J48" s="10">
-        <v>387</v>
+        <v>293</v>
       </c>
       <c r="K48" s="10">
-        <v>365</v>
+        <v>319</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -2827,22 +2827,22 @@
         <v>55</v>
       </c>
       <c r="B49" s="10">
-        <v>1332</v>
+        <v>1019</v>
       </c>
       <c r="C49" s="10">
-        <v>1325</v>
+        <v>955</v>
       </c>
       <c r="D49" s="10">
-        <v>931</v>
+        <v>808</v>
       </c>
       <c r="E49" s="10">
-        <v>958</v>
+        <v>796</v>
       </c>
       <c r="F49" s="10">
-        <v>473</v>
+        <v>443</v>
       </c>
       <c r="G49" s="10">
-        <v>521</v>
+        <v>460</v>
       </c>
       <c r="H49" s="10">
         <v>1</v>
@@ -2851,10 +2851,10 @@
         <v>1</v>
       </c>
       <c r="J49" s="10">
-        <v>2736</v>
+        <v>2270</v>
       </c>
       <c r="K49" s="10">
-        <v>2804</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -2862,22 +2862,22 @@
         <v>56</v>
       </c>
       <c r="B50" s="8">
-        <v>806</v>
+        <v>726</v>
       </c>
       <c r="C50" s="8">
-        <v>847</v>
+        <v>712</v>
       </c>
       <c r="D50" s="8">
-        <v>778</v>
+        <v>674</v>
       </c>
       <c r="E50" s="8">
-        <v>773</v>
+        <v>675</v>
       </c>
       <c r="F50" s="8">
-        <v>444</v>
+        <v>365</v>
       </c>
       <c r="G50" s="8">
-        <v>451</v>
+        <v>407</v>
       </c>
       <c r="H50" s="8">
         <v>1</v>
@@ -2886,10 +2886,10 @@
         <v>1</v>
       </c>
       <c r="J50" s="8">
-        <v>2029</v>
+        <v>1766</v>
       </c>
       <c r="K50" s="8">
-        <v>2072</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -2897,34 +2897,34 @@
         <v>57</v>
       </c>
       <c r="B51" s="10">
-        <v>316</v>
+        <v>224</v>
       </c>
       <c r="C51" s="10">
-        <v>311</v>
+        <v>210</v>
       </c>
       <c r="D51" s="10">
-        <v>267</v>
+        <v>213</v>
       </c>
       <c r="E51" s="10">
-        <v>258</v>
+        <v>201</v>
       </c>
       <c r="F51" s="10">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="G51" s="10">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="H51" s="10">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I51" s="10">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="J51" s="10">
-        <v>662</v>
+        <v>502</v>
       </c>
       <c r="K51" s="10">
-        <v>650</v>
+        <v>479</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -2932,22 +2932,22 @@
         <v>58</v>
       </c>
       <c r="B52" s="10">
+        <v>163</v>
+      </c>
+      <c r="C52" s="10">
+        <v>166</v>
+      </c>
+      <c r="D52" s="10">
+        <v>156</v>
+      </c>
+      <c r="E52" s="10">
         <v>161</v>
       </c>
-      <c r="C52" s="10">
-        <v>169</v>
-      </c>
-      <c r="D52" s="10">
-        <v>169</v>
-      </c>
-      <c r="E52" s="10">
-        <v>171</v>
-      </c>
       <c r="F52" s="10">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G52" s="10">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="H52" s="10">
         <v>1</v>
@@ -2956,10 +2956,10 @@
         <v>1</v>
       </c>
       <c r="J52" s="10">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="K52" s="10">
-        <v>438</v>
+        <v>417</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -2967,22 +2967,22 @@
         <v>59</v>
       </c>
       <c r="B53" s="10">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C53" s="10">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="D53" s="10">
         <v>39</v>
       </c>
       <c r="E53" s="10">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F53" s="10">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G53" s="10">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H53" s="10">
         <v>0</v>
@@ -2991,10 +2991,10 @@
         <v>0</v>
       </c>
       <c r="J53" s="10">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K53" s="10">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -3002,16 +3002,16 @@
         <v>60</v>
       </c>
       <c r="B54" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C54" s="10">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D54" s="10">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E54" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F54" s="10">
         <v>17</v>
@@ -3026,10 +3026,10 @@
         <v>0</v>
       </c>
       <c r="J54" s="10">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K54" s="10">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3040,31 +3040,31 @@
         <v>86</v>
       </c>
       <c r="C55" s="10">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="D55" s="10">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="E55" s="10">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F55" s="10">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="G55" s="10">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="H55" s="10">
         <v>0.05</v>
       </c>
       <c r="I55" s="10">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="J55" s="10">
-        <v>238</v>
+        <v>172</v>
       </c>
       <c r="K55" s="10">
-        <v>266</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -3072,22 +3072,22 @@
         <v>62</v>
       </c>
       <c r="B56" s="10">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C56" s="10">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D56" s="10">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E56" s="10">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F56" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G56" s="10">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H56" s="10">
         <v>0</v>
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="J56" s="10">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="K56" s="10">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3107,34 +3107,34 @@
         <v>63</v>
       </c>
       <c r="B57" s="10">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C57" s="10">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D57" s="10">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E57" s="10">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F57" s="10">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G57" s="10">
         <v>46</v>
       </c>
       <c r="H57" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I57" s="10">
         <v>0.47</v>
       </c>
       <c r="J57" s="10">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="K57" s="10">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3142,22 +3142,22 @@
         <v>64</v>
       </c>
       <c r="B58" s="10">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C58" s="10">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D58" s="10">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E58" s="10">
         <v>29</v>
       </c>
       <c r="F58" s="10">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G58" s="10">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H58" s="10">
         <v>0</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="10">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K58" s="10">
         <v>112</v>
@@ -3177,34 +3177,34 @@
         <v>65</v>
       </c>
       <c r="B59" s="8">
-        <v>1374</v>
+        <v>1526</v>
       </c>
       <c r="C59" s="8">
-        <v>1619</v>
+        <v>1563</v>
       </c>
       <c r="D59" s="8">
-        <v>1877</v>
+        <v>1655</v>
       </c>
       <c r="E59" s="8">
-        <v>2202</v>
+        <v>1703</v>
       </c>
       <c r="F59" s="8">
-        <v>608</v>
+        <v>624</v>
       </c>
       <c r="G59" s="8">
-        <v>810</v>
+        <v>640</v>
       </c>
       <c r="H59" s="8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I59" s="8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J59" s="8">
-        <v>3866</v>
+        <v>3809</v>
       </c>
       <c r="K59" s="8">
-        <v>4639</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3212,34 +3212,34 @@
         <v>66</v>
       </c>
       <c r="B60" s="10">
-        <v>991</v>
+        <v>1113</v>
       </c>
       <c r="C60" s="10">
-        <v>1259</v>
+        <v>1115</v>
       </c>
       <c r="D60" s="10">
-        <v>1553</v>
+        <v>1342</v>
       </c>
       <c r="E60" s="10">
-        <v>1885</v>
+        <v>1383</v>
       </c>
       <c r="F60" s="10">
-        <v>455</v>
+        <v>476</v>
       </c>
       <c r="G60" s="10">
-        <v>649</v>
+        <v>485</v>
       </c>
       <c r="H60" s="10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I60" s="10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J60" s="10">
-        <v>3006</v>
+        <v>2935</v>
       </c>
       <c r="K60" s="10">
-        <v>3801</v>
+        <v>2988</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3247,34 +3247,34 @@
         <v>67</v>
       </c>
       <c r="B61" s="10">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="C61" s="10">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D61" s="10">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E61" s="10">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F61" s="10">
+        <v>58</v>
+      </c>
+      <c r="G61" s="10">
         <v>61</v>
-      </c>
-      <c r="G61" s="10">
-        <v>64</v>
       </c>
       <c r="H61" s="10">
         <v>0.18</v>
       </c>
       <c r="I61" s="10">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="J61" s="10">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="K61" s="10">
-        <v>322</v>
+        <v>354</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -3282,22 +3282,22 @@
         <v>68</v>
       </c>
       <c r="B62" s="10">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="C62" s="10">
-        <v>220</v>
+        <v>276</v>
       </c>
       <c r="D62" s="10">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E62" s="10">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F62" s="10">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G62" s="10">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H62" s="10">
         <v>0.05</v>
@@ -3306,10 +3306,10 @@
         <v>0.04</v>
       </c>
       <c r="J62" s="10">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="K62" s="10">
-        <v>516</v>
+        <v>569</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -3323,16 +3323,16 @@
         <v>98</v>
       </c>
       <c r="D63" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E63" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F63" s="8">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G63" s="8">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H63" s="8">
         <v>0</v>
@@ -3341,10 +3341,10 @@
         <v>0</v>
       </c>
       <c r="J63" s="8">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="K63" s="8">
-        <v>298</v>
+        <v>289</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -3352,19 +3352,19 @@
         <v>70</v>
       </c>
       <c r="B64" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C64" s="10">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D64" s="10">
+        <v>43</v>
+      </c>
+      <c r="E64" s="10">
         <v>41</v>
       </c>
-      <c r="E64" s="10">
-        <v>39</v>
-      </c>
       <c r="F64" s="10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G64" s="10">
         <v>17</v>
@@ -3376,10 +3376,10 @@
         <v>0</v>
       </c>
       <c r="J64" s="10">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K64" s="10">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -3387,22 +3387,22 @@
         <v>71</v>
       </c>
       <c r="B65" s="10">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C65" s="10">
+        <v>62</v>
+      </c>
+      <c r="D65" s="10">
         <v>65</v>
       </c>
-      <c r="D65" s="10">
-        <v>68</v>
-      </c>
       <c r="E65" s="10">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F65" s="10">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G65" s="10">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H65" s="10">
         <v>0</v>
@@ -3411,10 +3411,10 @@
         <v>0</v>
       </c>
       <c r="J65" s="10">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="K65" s="10">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -3422,34 +3422,34 @@
         <v>72</v>
       </c>
       <c r="B66" s="8">
-        <v>12595</v>
+        <v>11829</v>
       </c>
       <c r="C66" s="8">
-        <v>12633</v>
+        <v>11775</v>
       </c>
       <c r="D66" s="8">
-        <v>11755</v>
+        <v>10707</v>
       </c>
       <c r="E66" s="8">
-        <v>12100</v>
+        <v>10722</v>
       </c>
       <c r="F66" s="8">
-        <v>5237</v>
+        <v>4985</v>
       </c>
       <c r="G66" s="8">
-        <v>5728</v>
+        <v>5185</v>
       </c>
       <c r="H66" s="8">
+        <v>53</v>
+      </c>
+      <c r="I66" s="8">
         <v>58</v>
       </c>
-      <c r="I66" s="8">
-        <v>63</v>
-      </c>
       <c r="J66" s="8">
-        <v>29645</v>
+        <v>27574</v>
       </c>
       <c r="K66" s="8">
-        <v>30524</v>
+        <v>27740</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
